--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcan-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcan-Egfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H2">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I2">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J2">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N2">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q2">
-        <v>13.9749424915</v>
+        <v>19.36108834929244</v>
       </c>
       <c r="R2">
-        <v>125.7744824235</v>
+        <v>174.249795143632</v>
       </c>
       <c r="S2">
-        <v>0.0005594185512285153</v>
+        <v>0.00118009228486291</v>
       </c>
       <c r="T2">
-        <v>0.0005594185512285153</v>
+        <v>0.00118009228486291</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H3">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I3">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J3">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q3">
-        <v>554.90274933885</v>
+        <v>711.042567591312</v>
       </c>
       <c r="R3">
-        <v>4994.124744049649</v>
+        <v>6399.383108321808</v>
       </c>
       <c r="S3">
-        <v>0.02221282071798638</v>
+        <v>0.04333929131903821</v>
       </c>
       <c r="T3">
-        <v>0.02221282071798639</v>
+        <v>0.04333929131903821</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H4">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I4">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J4">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N4">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q4">
-        <v>1.623791495316666</v>
+        <v>4.935677546224</v>
       </c>
       <c r="R4">
-        <v>14.61412345785</v>
+        <v>44.421097916016</v>
       </c>
       <c r="S4">
-        <v>6.500055984915423E-05</v>
+        <v>0.0003008382012307125</v>
       </c>
       <c r="T4">
-        <v>6.500055984915423E-05</v>
+        <v>0.0003008382012307126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H5">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I5">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J5">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N5">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q5">
-        <v>118.8331258630778</v>
+        <v>181.701244081664</v>
       </c>
       <c r="R5">
-        <v>1069.4981327677</v>
+        <v>1635.311196734976</v>
       </c>
       <c r="S5">
-        <v>0.00475690366158662</v>
+        <v>0.01107500944277238</v>
       </c>
       <c r="T5">
-        <v>0.00475690366158662</v>
+        <v>0.01107500944277239</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H6">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I6">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J6">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N6">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q6">
-        <v>0.8328135204388887</v>
+        <v>2.454003706515556</v>
       </c>
       <c r="R6">
-        <v>7.495321683949999</v>
+        <v>22.08603335864</v>
       </c>
       <c r="S6">
-        <v>3.333762076880191E-05</v>
+        <v>0.0001495758290462957</v>
       </c>
       <c r="T6">
-        <v>3.333762076880191E-05</v>
+        <v>0.0001495758290462957</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>466.172821</v>
       </c>
       <c r="I7">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J7">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N7">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q7">
-        <v>244.60554090691</v>
+        <v>264.4644512845299</v>
       </c>
       <c r="R7">
-        <v>2201.44986816219</v>
+        <v>2380.180061560769</v>
       </c>
       <c r="S7">
-        <v>0.009791587865197975</v>
+        <v>0.01611957204837517</v>
       </c>
       <c r="T7">
-        <v>0.009791587865197975</v>
+        <v>0.01611957204837517</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>466.172821</v>
       </c>
       <c r="I8">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J8">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P8">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q8">
         <v>9712.547098874829</v>
@@ -948,10 +948,10 @@
         <v>87412.92388987346</v>
       </c>
       <c r="S8">
-        <v>0.3887943746527779</v>
+        <v>0.5919967767808207</v>
       </c>
       <c r="T8">
-        <v>0.388794374652778</v>
+        <v>0.5919967767808209</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>466.172821</v>
       </c>
       <c r="I9">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J9">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N9">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q9">
-        <v>28.42146915978767</v>
+        <v>67.41931189148301</v>
       </c>
       <c r="R9">
-        <v>255.793222438089</v>
+        <v>606.7738070233471</v>
       </c>
       <c r="S9">
-        <v>0.00113771467115696</v>
+        <v>0.004109325280611765</v>
       </c>
       <c r="T9">
-        <v>0.00113771467115696</v>
+        <v>0.004109325280611767</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>466.172821</v>
       </c>
       <c r="I10">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J10">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N10">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q10">
-        <v>2079.954250049806</v>
+        <v>2481.963769125088</v>
       </c>
       <c r="R10">
-        <v>18719.58825044826</v>
+        <v>22337.67392212579</v>
       </c>
       <c r="S10">
-        <v>0.08326080725499749</v>
+        <v>0.151280043890757</v>
       </c>
       <c r="T10">
-        <v>0.08326080725499749</v>
+        <v>0.1512800438907571</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>466.172821</v>
       </c>
       <c r="I11">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J11">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N11">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q11">
-        <v>14.57686153380922</v>
+        <v>33.52067466380611</v>
       </c>
       <c r="R11">
-        <v>131.191753804283</v>
+        <v>301.686071974255</v>
       </c>
       <c r="S11">
-        <v>0.0005835134395481122</v>
+        <v>0.002043143899790265</v>
       </c>
       <c r="T11">
-        <v>0.0005835134395481122</v>
+        <v>0.002043143899790265</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H12">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I12">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J12">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N12">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q12">
-        <v>9.458885254219998</v>
+        <v>20.24183014407378</v>
       </c>
       <c r="R12">
-        <v>85.12996728797998</v>
+        <v>182.176471296664</v>
       </c>
       <c r="S12">
-        <v>0.0003786402619095543</v>
+        <v>0.00123377504164945</v>
       </c>
       <c r="T12">
-        <v>0.0003786402619095543</v>
+        <v>0.00123377504164945</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H13">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I13">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J13">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>187.511841</v>
       </c>
       <c r="O13">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P13">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q13">
-        <v>375.583759034418</v>
+        <v>743.3881101480241</v>
       </c>
       <c r="R13">
-        <v>3380.253831309762</v>
+        <v>6690.492991332217</v>
       </c>
       <c r="S13">
-        <v>0.01503466096349152</v>
+        <v>0.04531080885628842</v>
       </c>
       <c r="T13">
-        <v>0.01503466096349152</v>
+        <v>0.04531080885628843</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H14">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I14">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J14">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N14">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q14">
-        <v>1.099056932815333</v>
+        <v>5.160203018248001</v>
       </c>
       <c r="R14">
-        <v>9.891512395337998</v>
+        <v>46.44182716423201</v>
       </c>
       <c r="S14">
-        <v>4.399537511135879E-05</v>
+        <v>0.0003145234224595288</v>
       </c>
       <c r="T14">
-        <v>4.399537511135879E-05</v>
+        <v>0.0003145234224595289</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H15">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I15">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J15">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N15">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q15">
-        <v>80.43173720555956</v>
+        <v>189.966888912128</v>
       </c>
       <c r="R15">
-        <v>723.8856348500359</v>
+        <v>1709.702000209152</v>
       </c>
       <c r="S15">
-        <v>0.003219691667976035</v>
+        <v>0.01157881498912764</v>
       </c>
       <c r="T15">
-        <v>0.003219691667976035</v>
+        <v>0.01157881498912764</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H16">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I16">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J16">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N16">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q16">
-        <v>0.5636865792317777</v>
+        <v>2.565637081142222</v>
       </c>
       <c r="R16">
-        <v>5.073179213085999</v>
+        <v>23.09073373028</v>
       </c>
       <c r="S16">
-        <v>2.256443843633679E-05</v>
+        <v>0.0001563800789806727</v>
       </c>
       <c r="T16">
-        <v>2.256443843633679E-05</v>
+        <v>0.0001563800789806727</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H17">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I17">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J17">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N17">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q17">
-        <v>28.16705038367</v>
+        <v>40.32069711870489</v>
       </c>
       <c r="R17">
-        <v>253.50345345303</v>
+        <v>362.886274068344</v>
       </c>
       <c r="S17">
-        <v>0.001127530258360439</v>
+        <v>0.002457617192362883</v>
       </c>
       <c r="T17">
-        <v>0.001127530258360439</v>
+        <v>0.002457617192362883</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H18">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I18">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J18">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>187.511841</v>
       </c>
       <c r="O18">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P18">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q18">
-        <v>1118.428480701873</v>
+        <v>1480.791342362904</v>
       </c>
       <c r="R18">
-        <v>10065.85632631686</v>
+        <v>13327.12208126614</v>
       </c>
       <c r="S18">
-        <v>0.04477082039568343</v>
+        <v>0.09025682890797393</v>
       </c>
       <c r="T18">
-        <v>0.04477082039568345</v>
+        <v>0.09025682890797396</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H19">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I19">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J19">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N19">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q19">
-        <v>3.272816105610333</v>
+        <v>10.278862212008</v>
       </c>
       <c r="R19">
-        <v>29.455344950493</v>
+        <v>92.50975990807203</v>
       </c>
       <c r="S19">
-        <v>0.0001310112041857403</v>
+        <v>0.0006265146759687631</v>
       </c>
       <c r="T19">
-        <v>0.0001310112041857403</v>
+        <v>0.0006265146759687634</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H20">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I20">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J20">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N20">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q20">
-        <v>239.5128742368829</v>
+        <v>378.404390111488</v>
       </c>
       <c r="R20">
-        <v>2155.615868131946</v>
+        <v>3405.639511003392</v>
       </c>
       <c r="S20">
-        <v>0.009587727834133865</v>
+        <v>0.02306441111535661</v>
       </c>
       <c r="T20">
-        <v>0.009587727834133865</v>
+        <v>0.02306441111535661</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H21">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I21">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J21">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N21">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O21">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P21">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q21">
-        <v>1.678568652763444</v>
+        <v>5.110618700431112</v>
       </c>
       <c r="R21">
-        <v>15.107117874871</v>
+        <v>45.99556830388001</v>
       </c>
       <c r="S21">
-        <v>6.719329574613061E-05</v>
+        <v>0.0003115011713417068</v>
       </c>
       <c r="T21">
-        <v>6.719329574613062E-05</v>
+        <v>0.0003115011713417068</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>133.1709713333333</v>
+        <v>0.628254</v>
       </c>
       <c r="H22">
-        <v>399.512914</v>
+        <v>1.884762</v>
       </c>
       <c r="I22">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J22">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N22">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O22">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P22">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q22">
-        <v>209.62842110494</v>
+        <v>1.069244120802</v>
       </c>
       <c r="R22">
-        <v>1886.65578994446</v>
+        <v>9.623197087217999</v>
       </c>
       <c r="S22">
-        <v>0.008391449746728761</v>
+        <v>6.517230409929816E-05</v>
       </c>
       <c r="T22">
-        <v>0.008391449746728761</v>
+        <v>6.517230409929817E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>133.1709713333333</v>
+        <v>0.628254</v>
       </c>
       <c r="H23">
-        <v>399.512914</v>
+        <v>1.884762</v>
       </c>
       <c r="I23">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J23">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>187.511841</v>
       </c>
       <c r="O23">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P23">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q23">
-        <v>8323.711334157188</v>
+        <v>39.268354718538</v>
       </c>
       <c r="R23">
-        <v>74913.40200741468</v>
+        <v>353.415192466842</v>
       </c>
       <c r="S23">
-        <v>0.3331991196551097</v>
+        <v>0.002393475077773728</v>
       </c>
       <c r="T23">
-        <v>0.3331991196551098</v>
+        <v>0.002393475077773729</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>133.1709713333333</v>
+        <v>0.628254</v>
       </c>
       <c r="H24">
-        <v>399.512914</v>
+        <v>1.884762</v>
       </c>
       <c r="I24">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J24">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N24">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O24">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P24">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q24">
-        <v>24.35737016978067</v>
+        <v>0.272579934726</v>
       </c>
       <c r="R24">
-        <v>219.216331528026</v>
+        <v>2.453219412534</v>
       </c>
       <c r="S24">
-        <v>0.000975028322327845</v>
+        <v>1.661422499476089E-05</v>
       </c>
       <c r="T24">
-        <v>0.000975028322327845</v>
+        <v>1.661422499476089E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>133.1709713333333</v>
+        <v>0.628254</v>
       </c>
       <c r="H25">
-        <v>399.512914</v>
+        <v>1.884762</v>
       </c>
       <c r="I25">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J25">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N25">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O25">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P25">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q25">
-        <v>1782.533313807419</v>
+        <v>10.034714137536</v>
       </c>
       <c r="R25">
-        <v>16042.79982426677</v>
+        <v>90.312427237824</v>
       </c>
       <c r="S25">
-        <v>0.07135501305520424</v>
+        <v>0.0006116334227121985</v>
       </c>
       <c r="T25">
-        <v>0.07135501305520424</v>
+        <v>0.0006116334227121986</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>133.1709713333333</v>
+        <v>0.628254</v>
       </c>
       <c r="H26">
-        <v>399.512914</v>
+        <v>1.884762</v>
       </c>
       <c r="I26">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J26">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N26">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O26">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P26">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q26">
-        <v>12.49245808851356</v>
+        <v>0.13552590579</v>
       </c>
       <c r="R26">
-        <v>112.432122796622</v>
+        <v>1.21973315211</v>
       </c>
       <c r="S26">
-        <v>0.0005000745304969831</v>
+        <v>8.260541604712083E-06</v>
       </c>
       <c r="T26">
-        <v>0.0005000745304969831</v>
+        <v>8.260541604712085E-06</v>
       </c>
     </row>
   </sheetData>
